--- a/Test data/TC05_ConfirmPayment.xlsx
+++ b/Test data/TC05_ConfirmPayment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2BA8C-13E3-4595-BC8D-0C1FEDAFC611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301CB1E-836B-4F04-B65A-E9E5BFAC26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>

--- a/Test data/TC05_ConfirmPayment.xlsx
+++ b/Test data/TC05_ConfirmPayment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301CB1E-836B-4F04-B65A-E9E5BFAC26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC97AA7F-F784-42ED-8D05-19B583AE9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>TDID</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>File</t>
@@ -539,7 +536,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -563,43 +560,43 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -607,22 +604,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -630,22 +627,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -653,22 +650,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -676,22 +673,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -699,22 +696,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>

--- a/Test data/TC05_ConfirmPayment.xlsx
+++ b/Test data/TC05_ConfirmPayment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC97AA7F-F784-42ED-8D05-19B583AE9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45420057-C780-45E5-BA39-EDE148EF910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>TDID</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>ขนาดไฟล์รูปภาพไม่เกิน 1 MB</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -549,10 +555,12 @@
     <col min="7" max="7" width="14.90625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -578,10 +586,16 @@
         <v>1</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -601,8 +615,10 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -624,8 +640,10 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -647,8 +665,10 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -670,8 +690,10 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -693,8 +715,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -716,6 +740,8 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test data/TC05_ConfirmPayment.xlsx
+++ b/Test data/TC05_ConfirmPayment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45420057-C780-45E5-BA39-EDE148EF910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD94A8B1-695E-4400-8638-1DE5BE2FB4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
